--- a/excel/Non-uniform.xlsx
+++ b/excel/Non-uniform.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1385B7E-6488-410B-A1A7-0E96C44AD2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8CA06-80D8-4745-B319-710B56E0F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -404,7 +404,7 @@
         <v>-2.7323404150744319E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>-6.6546112758842313E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>3.4241824801523046E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -446,7 +446,7 @@
         <v>0.11810522330596629</v>
       </c>
     </row>
-    <row r="5" spans="1:4" dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>-8.7976665828206957E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>2.180264968989154E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>7.8458424190046117E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>-0.19196664223617088</v>
       </c>
     </row>
-    <row r="9" spans="1:4" dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0.10822916580556508</v>
       </c>
     </row>
-    <row r="10" spans="1:4" dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.45835716892650902</v>
       </c>
     </row>
-    <row r="11" spans="1:4" dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -544,7 +544,7 @@
         <v>-2.0402325312932854</v>
       </c>
     </row>
-    <row r="12" spans="1:4" dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.22116454403540531</v>
       </c>
@@ -558,7 +558,7 @@
         <v>-3.7081664557672145E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.27005618541875598</v>
       </c>
@@ -572,7 +572,7 @@
         <v>9.4829646323618677E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.29720625306965542</v>
       </c>
@@ -586,7 +586,7 @@
         <v>5.3689672364412466E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.29918510495020662</v>
       </c>
@@ -600,7 +600,7 @@
         <v>0.10783725886517648</v>
       </c>
     </row>
-    <row r="16" spans="1:4" dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.31704317105459928</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1.8802660268492088E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.33460335373215178</v>
       </c>
@@ -628,7 +628,7 @@
         <v>2.7735109971149474E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.33911117480645342</v>
       </c>
@@ -642,7 +642,7 @@
         <v>-3.2617735000331494E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.37622101698646382</v>
       </c>
@@ -656,7 +656,7 @@
         <v>1.6669874505786809E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.38429055383092747</v>
       </c>
@@ -670,7 +670,7 @@
         <v>-0.13117795598263526</v>
       </c>
     </row>
-    <row r="21" spans="1:4" dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.38434094646953032</v>
       </c>
@@ -684,7 +684,7 @@
         <v>-8.429670874807027E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.39999999999925662</v>
       </c>
@@ -698,7 +698,7 @@
         <v>4.5788594835578691E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.4000000000016648</v>
       </c>
@@ -712,7 +712,7 @@
         <v>2.0767734490083085</v>
       </c>
     </row>
-    <row r="24" spans="1:4" dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.48128203516565149</v>
       </c>
@@ -726,7 +726,7 @@
         <v>2.9096209089188974E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.57179263885847331</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0.19271038810739094</v>
       </c>
     </row>
-    <row r="26" spans="1:4" dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.58787608940431391</v>
       </c>
@@ -754,7 +754,7 @@
         <v>-0.10885404023278467</v>
       </c>
     </row>
-    <row r="27" spans="1:4" dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.59947997763747474</v>
       </c>
@@ -768,7 +768,7 @@
         <v>-8.0459459211080775E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.62807000765066257</v>
       </c>
@@ -782,7 +782,7 @@
         <v>-0.14763219001080749</v>
       </c>
     </row>
-    <row r="29" spans="1:4" dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.64189494561416305</v>
       </c>
@@ -796,7 +796,7 @@
         <v>1.5550239917750952E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.66866970800580894</v>
       </c>
@@ -810,7 +810,7 @@
         <v>-8.3067840713397012E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.67298515545176807</v>
       </c>
@@ -824,7 +824,7 @@
         <v>-1.4012993816463246E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.68805580068463057</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.11000239954621205</v>
       </c>
     </row>
-    <row r="33" spans="1:4" dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.76885272923724324</v>
       </c>
@@ -852,7 +852,7 @@
         <v>-1.0847138166505399E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.79999999999822768</v>
       </c>
@@ -866,7 +866,7 @@
         <v>-8.5988563716082128E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.80000000000333005</v>
       </c>
@@ -880,7 +880,7 @@
         <v>-1.6169122569759531</v>
       </c>
     </row>
-    <row r="36" spans="1:4" dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.80339184361867222</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.13821605458576913</v>
       </c>
     </row>
-    <row r="37" spans="1:4" dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.81852097360136311</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-0.42175086638732373</v>
       </c>
     </row>
-    <row r="38" spans="1:4" dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.82730992136016146</v>
       </c>
@@ -922,7 +922,7 @@
         <v>-0.17300878633047295</v>
       </c>
     </row>
-    <row r="39" spans="1:4" dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.89270010333458105</v>
       </c>
@@ -936,7 +936,7 @@
         <v>6.7500170081335242E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.91029157744834921</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0.14554576474652314</v>
       </c>
     </row>
-    <row r="41" spans="1:4" dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.95150562669469763</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0.2737713340727207</v>
       </c>
     </row>
-    <row r="42" spans="1:4" dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.99842776682046297</v>
       </c>
@@ -978,7 +978,7 @@
         <v>6.3054902068746005E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.99989805208055471</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1.8754765741060608E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.0043438287268911</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>3.00769863579535E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.023278019416193</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>-3.2813020197634733E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1.0580237487777211</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>2.3374286281436452E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.12066093714478</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0.22248563516362774</v>
       </c>
     </row>
-    <row r="48" spans="1:4" dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.1321833652951869</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>-0.10907819042908154</v>
       </c>
     </row>
-    <row r="49" spans="1:4" dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1.157562144682649</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.33443200646418925</v>
       </c>
     </row>
-    <row r="50" spans="1:4" dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1.186267681156592</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>-0.24067115418603335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1.194406091396085</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>-3.2237022663429218E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.1999999999970601</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>2.1396057879192579E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1.2000000000049951</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>1.010241517001941</v>
       </c>
     </row>
-    <row r="54" spans="1:4" dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.2697549802569359</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>5.6330946587396236E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1.3000963996567469</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>2.0251173512346163E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.3103173994318389</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>-0.17935039388875826</v>
       </c>
     </row>
-    <row r="57" spans="1:4" dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.3674589921029221</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>-0.48930994846868969</v>
       </c>
     </row>
-    <row r="58" spans="1:4" dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1.4032697635459881</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>-2.9376794252446548E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.4111879468743671</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>-7.4204394624062142E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1.4175026080004329</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>-5.8253065092925667E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1.433305024099971</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>-1.6636580092200773E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1.4824423582933131</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>4.1437650989246344E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1.4955967963305219</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>-3.210852201736078E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1.5463168383708781</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0.11082292639447766</v>
       </c>
     </row>
-    <row r="65" spans="1:4" dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1.5573423698964579</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>2.385685348959599E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1.559112079828751</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>-9.219927814932527E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1.599999999995892</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>4.7165673199335928E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1.6000000000066601</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>-0.73703896435671423</v>
       </c>
     </row>
-    <row r="69" spans="1:4" dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1.6159074661663491</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>5.1471923309679223E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1.6736703456570221</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>-1.9108691199899275E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1.7076578228841439</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>-5.5830957923560048E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1.748096543207394</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>9.8446172332111836E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1.7581767377675319</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0.43746545140672255</v>
       </c>
     </row>
-    <row r="74" spans="1:4" dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.796790036146521</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.16891359636364245</v>
       </c>
     </row>
-    <row r="75" spans="1:4" dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1.807525189957409</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>4.0272244235434282E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1.833106061821951</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>-0.22876505497820379</v>
       </c>
     </row>
-    <row r="77" spans="1:4" dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1.836593788177018</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>4.7709729830447141E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1.8619198502650569</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>-2.403459649387581E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.883274719908907</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>-3.9248850801652198E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1.920108297666018</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>-0.25994994127218801</v>
       </c>
     </row>
-    <row r="81" spans="1:4" dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.999999999994768</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>-6.7981827904108255E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1.4424730708260416E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2.0000000000082379</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0.56844318396213833</v>
       </c>
     </row>
-    <row r="84" spans="1:4" dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2.0615316136542212</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>7.1724301546722866E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2.0943659971783788</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>-6.2048917286330385E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2.0972939587804209</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0.12112631027333465</v>
       </c>
     </row>
-    <row r="87" spans="1:4" dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2.1170161603109792</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>2.819140482319183E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2.1411025575308602</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>-0.20114168689525125</v>
       </c>
     </row>
-    <row r="89" spans="1:4" dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2.1572607753025612</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>-0.13420847479511996</v>
       </c>
     </row>
-    <row r="90" spans="1:4" dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2.1858135776751642</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>9.0223983157929864E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2.2243195041470409</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>-5.151416584081614E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2.232870684532648</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>-4.0694112171911961E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2.2348925598767839</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0.30353988993460435</v>
       </c>
     </row>
-    <row r="94" spans="1:4" dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2.2367028142180772</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>2.2273369933812737E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.3420438857875139</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>-0.18654626280366737</v>
       </c>
     </row>
-    <row r="96" spans="1:4" dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2.3999999999957802</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>2.7312785388807392E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2.4000000000055501</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>-0.45980629607475665</v>
       </c>
     </row>
-    <row r="98" spans="1:4" dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2.4211987073743648</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>-5.6557422872960172E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2.4247107838458621</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>-7.479486267957261E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2.4248358025138792</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>-1.3924937203266476E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2.4425244928628671</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>-6.0028689725690976E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2.474900412013826</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>2.5332661136648595E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2.490092379627475</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>5.2881314967003629E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2.5334377498610352</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0.25806749647716398</v>
       </c>
     </row>
-    <row r="105" spans="1:4" dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2.5560870537362361</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>-2.470610623132408E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2.567524494333326</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>3.1283617653243279E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2.5753852020081012</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>0.10118849473689828</v>
       </c>
     </row>
-    <row r="108" spans="1:4" dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2.6260402143751191</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8.1147737335734542E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2.6956101815861659</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>-1.9043959364850378E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2.7047669459006221</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>-1.9937479159707144E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2.7632378869466301</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.10782361251910437</v>
       </c>
     </row>
-    <row r="112" spans="1:4" dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2.7985319668236852</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>1.7257581130251227E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2.7999999999968348</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>-3.4748465100162095E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2.8000000000027749</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.40723884578050884</v>
       </c>
     </row>
-    <row r="115" spans="1:4" dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2.8113501142600441</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>-6.5751721811551284E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2.8115548571683382</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>-9.7267555742609452E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2.8128878457873641</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>-7.3669585256939729E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2.828867596366146</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>-5.0149577005927273E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2.9203955714806349</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>-0.10877160109892176</v>
       </c>
     </row>
-    <row r="120" spans="1:4" dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2.948433370489028</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>6.8351613296278674E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2.961691431033127</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>-2.2293749211979359E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3.0175481395722179</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>8.9129438196220254E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3.048278493577703</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>1.6476610419276155E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3.0674583961208022</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>-2.8619358647818196E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3.0783491428524239</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>-0.13314612655978555</v>
       </c>
     </row>
-    <row r="126" spans="1:4" dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3.083886611518913</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>-5.4193685888617886E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3.1381372493374591</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>4.1761904904890111E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3.1520944810316012</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.15545520915465508</v>
       </c>
     </row>
-    <row r="129" spans="1:4" dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3.1744009846418302</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>2.266465643978853E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3.1795966230274799</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>-7.208295566982581E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3.1999999999978899</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>1.8150592600505678E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3.2</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>-0.10149571799530743</v>
       </c>
     </row>
-    <row r="133" spans="1:4" dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3.2264075864813031</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4.6909740278600613E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3.308172501751836</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>-6.6112758580726586E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3.3318967710720102</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>-4.8706887112363692E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3.3518660176397259</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>-3.0970968214928288E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3.3568860847647128</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>7.9402465115912965E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3.400065661636952</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>3.6192268832692262E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3.4150452647324738</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>-1.5449237388248879E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3.4159494155341532</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>-5.9144526403100944E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3.42506129051521</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>6.5800253475700538E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3.4482386624839241</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>-2.0580543589434147E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3.5999999999983339</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>-8.8165194210976072E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3.5999999999989449</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>3.3195926185796251E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3.6117793382595278</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>6.9798044443788758E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3.6131305987001698</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>-3.2397319546457533E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3.6199919733349502</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>-3.5428564965636559E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3.6615582512414191</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>-1.2465486213365597E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3.6696000588755271</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>-1.0329443231382235E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3.6946295134156282</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>4.8408869808438879E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3.695883117851551</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>2.9537214021869033E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3.7136357757442329</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>-3.6980625539096382E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3.7255642789809591</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>2.9589276206916149E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3.7807742206011579</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>2.7928246633050825E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>-1.0181742844812642E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>7.7092362915709076E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>-6.8505365995515238E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>-5.4393262298735529E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1.7431405897649098E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>-1.2542418707570099E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>3.1806895124018505E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>-2.6916957786202782E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>2.8616990248367786E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1.8766792189983166E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4</v>
       </c>
@@ -2721,7 +2721,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>4.1870103168384337E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>-2.0624862743068177E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>2.0976608288845178E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>1.0691282888512676E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>1.860571904948749E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>1.0728476793663511E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>-1.4867568731081637E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>1.1105389956161948E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1.1292531318560561E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>-5.461582103192486E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>2.5909785024804677E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>6.7475635650140697E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>-0.13467297926787702</v>
       </c>
     </row>
-    <row r="14" spans="1:4" dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>-3.5782379323694435E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0.10750666150228794</v>
       </c>
     </row>
-    <row r="16" spans="1:4" dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2.4908531200560802E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>-0.12258478328234934</v>
       </c>
     </row>
-    <row r="18" spans="1:4" dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.77891458775744515</v>
       </c>
     </row>
-    <row r="19" spans="1:4" dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>-1.4031910813644202</v>
       </c>
     </row>
-    <row r="20" spans="1:4" dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1.7601883515812324</v>
       </c>
     </row>
-    <row r="21" spans="1:4" dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>-1.0669908218451407</v>
       </c>
     </row>
-    <row r="22" spans="1:4" dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.1226844586862383</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>1.3159042885601013</v>
       </c>
     </row>
-    <row r="23" spans="1:4" dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1326309470675367</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>-3.3276946061584767E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1423868758782289</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>-2.6671558918953089</v>
       </c>
     </row>
-    <row r="25" spans="1:4" dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.1455526133736873</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>3.074627764729454E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.15528784561688189</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>-1.3421642658247277</v>
       </c>
     </row>
-    <row r="27" spans="1:4" dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.15613809867451189</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>-3.243454451781229E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1583708066715101</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>-5.4722009340739231E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.15952321675113679</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>4.3078712318236345E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.164697823363783</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>-1.7114348257511458E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.17153153920886599</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>-3.5582875378019629E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.1774869267311068</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>-6.4877532031444307E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.18393313753053289</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>5.2084498876686647E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.18506454418323121</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>-9.4069875544037673E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.18514258250924909</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>2.4976248179830574E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.18864628107415651</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>2.8769377307573674E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.18895509516998499</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>-2.601403569574634E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.18897038718072179</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>2.29952732037831</v>
       </c>
     </row>
-    <row r="39" spans="1:4" dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.19315571575599241</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>1.2389344882180353E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.19988040137814869</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>-4.8452440732172364E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.19999999999959761</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>-1.3343939207350894E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.2000000000008324</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>-0.14939480056912741</v>
       </c>
     </row>
-    <row r="43" spans="1:4" dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.20064733719441741</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>-2.0719641260906474E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.22432371079160249</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>5.6910685537540529E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.28003934033169181</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>-1.136304185829927</v>
       </c>
     </row>
-    <row r="46" spans="1:4" dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.29592461471291248</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>1.2460112011500685E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.30005515141991013</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>-0.17443309519926831</v>
       </c>
     </row>
-    <row r="48" spans="1:4" dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.30761876237958369</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>-1.3464013227967864E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.30827303026702441</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>-1.4227167778440526E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.3139909435010782</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>3.8755788073285502E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.31455766595941431</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>-4.3007392090816943E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.32117946207575537</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>2.5090317871390275</v>
       </c>
     </row>
-    <row r="53" spans="1:4" dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.32236477527155999</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>-0.43415691480827129</v>
       </c>
     </row>
-    <row r="54" spans="1:4" dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.32774960906178741</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>7.7039695209198955E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.32922943251124509</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>2.2187608984085561E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.34891405871349401</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>1.0112503978257803E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.34911980652130048</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>-9.0766895876856379E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.35124407751634817</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>-5.2024717640529738E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.35786934076931048</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>-2.0533827640364793E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.36462130304279622</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>-2.6969362102708581</v>
       </c>
     </row>
-    <row r="61" spans="1:4" dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.37537038663766309</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>-0.10193364210757982</v>
       </c>
     </row>
-    <row r="62" spans="1:4" dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.38522065248387932</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>0.53268974407517733</v>
       </c>
     </row>
-    <row r="63" spans="1:4" dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.39971156968321631</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>4.5138988803411828E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.39999999999925662</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>1.5373465307435758E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.4000000000016648</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1.4133844146405856</v>
       </c>
     </row>
-    <row r="66" spans="1:4" dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.40085281680546719</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1.4004956893490239E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.41471739644644862</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>-1.5054086243831799E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.43152896378897909</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1.0121093987731977E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.43556328090238439</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>-1.9164414936124897E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.43915156870984468</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>2.7712474209331539E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.4402008095931525</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>3.7950224624820894E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.44189133455183688</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>-6.4177889687629719E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.44762865781498129</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0.35532534005809624</v>
       </c>
     </row>
-    <row r="74" spans="1:4" dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.46933058810250899</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0.15935867756124367</v>
       </c>
     </row>
-    <row r="75" spans="1:4" dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.47260357316009061</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>2.0041594664704787E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.49052923846745949</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>-1.8096903217214106</v>
       </c>
     </row>
-    <row r="77" spans="1:4" dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.49380598473407261</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0.56088717077959738</v>
       </c>
     </row>
-    <row r="78" spans="1:4" dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.49831325600579102</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>1.6427132583216486E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.50435234241521631</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1.8063589009611567</v>
       </c>
     </row>
-    <row r="80" spans="1:4" dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.51601528341181424</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>1.6577714812141549E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.52685903286983649</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>-7.6281570298220136E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.53558420625517533</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>-1.3500537610979801E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.54770229425549699</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>5.2279425365446497E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.54930045636408775</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>1.212068946823619E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.55329616424827965</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>-8.5204869634042304E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.55337405384123528</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>-7.5713392852296418E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.55982141447188927</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1.5712389081552924E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.5606783877601208</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>-0.27492465446450853</v>
       </c>
     </row>
-    <row r="89" spans="1:4" dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.59628328433126332</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>-9.8239882173476789E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.59999999999881148</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>2.2352587648240391E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.60000000000249765</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>-1.6334728486980921</v>
       </c>
     </row>
-    <row r="92" spans="1:4" dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.61082776633979585</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>-9.2434689467196796E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.62927144034409677</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>-0.55408126695218562</v>
       </c>
     </row>
-    <row r="94" spans="1:4" dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.62942132429216457</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>1.1688460772179443E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.63158829256759141</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>-3.1148209384292006E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.63878869582847853</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>5.523831073992358E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.6422553828719787</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>-3.8421724402302293E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.64823386239617353</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0.27853797475325248</v>
       </c>
     </row>
-    <row r="99" spans="1:4" dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.64829002391054658</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>-8.8479394879369955E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.66099367089304906</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>-1.0476607090550299E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.67185726130959722</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>-6.262940411418072E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.68575914246283487</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>-7.6642630331907506E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.69162962163378972</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>9.2123701290271809E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.70375249786610206</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1.5965629996850611E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.70411800078633213</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>-0.19952284922853364</v>
       </c>
     </row>
-    <row r="106" spans="1:4" dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.71977504157534966</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0.14145928467880764</v>
       </c>
     </row>
-    <row r="107" spans="1:4" dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.73311983973100725</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.12128334886649006</v>
       </c>
     </row>
-    <row r="108" spans="1:4" dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.73435533835734212</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>-0.11475263750238229</v>
       </c>
     </row>
-    <row r="109" spans="1:4" dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.73591225968518736</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>1.9205210173008913E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.73906760420983897</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>-8.8288212136258416E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.74365581942796088</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>-0.5889879118425968</v>
       </c>
     </row>
-    <row r="112" spans="1:4" dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.7618185758990248</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>-4.8351759617845137E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.77002427358259629</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>2.7963328958291789E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.77178951002811014</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>-0.57433057174902302</v>
       </c>
     </row>
-    <row r="115" spans="1:4" dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.78244541351442809</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>0.12198568256697273</v>
       </c>
     </row>
-    <row r="116" spans="1:4" dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.79364829125738001</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0.74097109665574135</v>
       </c>
     </row>
-    <row r="117" spans="1:4" dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.79868072467302464</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>1.1280841262248539E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.79999999999822768</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>-3.385366273722656E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.80000000000333005</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>2.4747790830781979</v>
       </c>
     </row>
-    <row r="120" spans="1:4" dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.80000306552122302</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>-0.12330975077679962</v>
       </c>
     </row>
-    <row r="121" spans="1:4" dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.82862522840987618</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0.63249866790945097</v>
       </c>
     </row>
-    <row r="122" spans="1:4" dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.83635074894718109</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>-4.6855541395807832E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.83911043644987893</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>8.3251462106432528E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.84000387455775549</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>3.9106004233731229E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.85661473960615275</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>-4.3285369604308651E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.87231779469528337</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>9.8906984354261374E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.87524001331674961</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>-4.3882009984224733E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.88213321434748848</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>8.3995834288437266E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.8859015088960156</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>-0.78272467780315547</v>
       </c>
     </row>
-    <row r="130" spans="1:4" dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.88914059042343574</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>-1.3346685836722882E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.90812524272831996</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>-0.86066215020181414</v>
       </c>
     </row>
-    <row r="132" spans="1:4" dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.90935109680903536</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>1.7125553859492881E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.91254661724305697</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>-0.28266923894222656</v>
       </c>
     </row>
-    <row r="134" spans="1:4" dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.92074503747980097</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>-2.0948266111221026E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.92090340097775492</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>1.0566007343955754</v>
       </c>
     </row>
-    <row r="136" spans="1:4" dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.92242929312904653</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>-0.1574137646293487</v>
       </c>
     </row>
-    <row r="137" spans="1:4" dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.92342447900763125</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>1.1217213903360194E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.92374624633035851</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>-2.4571312878152434E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.93983489032248668</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0.72318383393183605</v>
       </c>
     </row>
-    <row r="140" spans="1:4" dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.94941426280896601</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>-3.7092369879928914E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.95837560554777101</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>5.3368089220036719E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.99999999999764377</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>2.5565463820410072E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1.000000000004162</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>-1.1660698048458751</v>
       </c>
     </row>
-    <row r="144" spans="1:4" dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1.0090912951738951</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>5.9495484440063029E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1.01524474166566</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>-2.6328034759088556E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.018373175893778</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>-9.4227858277391885E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.0213989191278909</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>-1.3526745483835643</v>
       </c>
     </row>
-    <row r="148" spans="1:4" dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.033649231167421</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>-2.3007222684800266E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.040042786489789</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>2.9637538290712695E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1.0509526811422201</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>4.3842037768585751E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.051367985670888</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>6.3896679560092656E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.0543385692030329</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>-7.8138820564820355E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1.0572650540311479</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>0.92068930334013432</v>
       </c>
     </row>
-    <row r="154" spans="1:4" dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.0586965494362699</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>-7.6708979985598796E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.0749876011425989</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0.40255035767050973</v>
       </c>
     </row>
-    <row r="156" spans="1:4" dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.094412090097552</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>-0.46210187393730412</v>
       </c>
     </row>
-    <row r="157" spans="1:4" dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.0956068047204579</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0.40838234958806774</v>
       </c>
     </row>
-    <row r="158" spans="1:4" dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.0967027461704431</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>-2.6072813392867731E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.096745600969508</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>1.5718333040666153E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.106665135304971</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>1.5182915955054388E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.1142194188185319</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>-1.7975989456441226E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1.128698620754367</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>-0.13680418804583944</v>
       </c>
     </row>
-    <row r="163" spans="1:4" dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1.1289077195346651</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>8.1805491618351156E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.130215476557735</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>-5.6249134741595541E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1.182838993024792</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>5.8470691333820657E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1.185389875113638</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>6.5654384492048997E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.188241775014129</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>9.2480370105601506E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1.1934369471276509</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>-3.1291759477914947E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.1999999999970601</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>2.9574035152242934E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1.2000000000049951</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>-3.1120564652549398</v>
       </c>
     </row>
-    <row r="171" spans="1:4" dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.210165554006841</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>5.7789995117933923E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.2199620828446629</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>-4.6884684072636684E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.22389280668736</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1.890517941839634E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.229493085014129</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>5.9794071416874543E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1.248121931409699</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1.3553510339337071</v>
       </c>
     </row>
-    <row r="176" spans="1:4" dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1.2586895970647971</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>-1.4875894737834803</v>
       </c>
     </row>
-    <row r="177" spans="1:4" dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.2735067500337811</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>-4.4906410504097043E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1.2735886956024429</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>7.5177641335983425E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1.2742053036122261</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>-6.5228151284253522E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1.274268879577618</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1.1019444749458942</v>
       </c>
     </row>
-    <row r="181" spans="1:4" dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.2783605452185169</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>-0.61814000903766131</v>
       </c>
     </row>
-    <row r="182" spans="1:4" dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.278428834766502</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>3.32035966671969E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1.2825874479675721</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>-4.0870970710250816E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.299583403757032</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>1.0836110109527851E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1.299642127502691</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>-4.3293784740608549E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1.3323989895269071</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1.7087582498345152E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:4" dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1.342906961268304</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>2.1979953092279514E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1.3457755358230921</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>7.4874571594444328E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1.3487404356042469</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>-0.3615207413581511</v>
       </c>
     </row>
-    <row r="190" spans="1:4" dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1.361650378386237</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>6.1074087308109037E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1.36336134887676</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>7.0840874705632468E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1.3999999999964761</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1.0525220771186463E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1.400000000005827</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>5.6728863453682141</v>
       </c>
     </row>
-    <row r="194" spans="1:4" dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1.4095169186450529</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>-1.597925561635196E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.4135854982722631</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>2.2334223905714019</v>
       </c>
     </row>
-    <row r="196" spans="1:4" dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1.4175832092205669</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>-2.4579368841479717E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1.432745727362966</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>3.576026373784103E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.439739440002352</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>2.1451107186346583E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1.445566867266143</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>-0.39755148197653606</v>
       </c>
     </row>
-    <row r="200" spans="1:4" dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.45447246874071</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>2.0770123399770635E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1.4622223870496991</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>-2.9095378103725475E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1.4655621851169649</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>-1.6415747890205887</v>
       </c>
     </row>
-    <row r="203" spans="1:4" dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1.467779732790911</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>-5.0756068479502594E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1.475382043976706</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>1.6602494176655713E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:4" dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1.475971307250429</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>-0.78420205560805012</v>
       </c>
     </row>
-    <row r="206" spans="1:4" dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1.479651813950434</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0.36099150498964827</v>
       </c>
     </row>
-    <row r="207" spans="1:4" dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1.481193209143306</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>7.2715492599374487E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1.4951897223106181</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>1.2641805037941194</v>
       </c>
     </row>
-    <row r="209" spans="1:4" dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1.4976772448401301</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>7.3485384781321725E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1.50422945100697</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>-1.1298473922992671</v>
       </c>
     </row>
-    <row r="211" spans="1:4" dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1.514743613440501</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0.59099171862141586</v>
       </c>
     </row>
-    <row r="212" spans="1:4" dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1.532532246814037</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>4.3143561968330047E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1.558409959638096</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>4.3975835773631513E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1.5645652010365709</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>-7.5904480100365181E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1.5696524765715989</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>-1.1497963791745377E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:4" dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1.575262900379361</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>-0.10515326581784323</v>
       </c>
     </row>
-    <row r="217" spans="1:4" dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1.578143828855112</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>-2.0499962235378991E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1.585046325528316</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>1.5889307543472369E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1.599999999995892</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>-8.1908089927529781E-4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1.6000000000066601</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>-3.4291038593991261</v>
       </c>
     </row>
-    <row r="221" spans="1:4" dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1.6046339448092659</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0.15631124057931456</v>
       </c>
     </row>
-    <row r="222" spans="1:4" dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1.6117841493208149</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>-1.0596954526527229E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1.6126488501892049</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>0.97843870144205669</v>
       </c>
     </row>
-    <row r="224" spans="1:4" dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1.628842952297902</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>-0.42482844941526726</v>
       </c>
     </row>
-    <row r="225" spans="1:4" dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1.631676537194467</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>-0.60926328079673708</v>
       </c>
     </row>
-    <row r="226" spans="1:4" dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1.6328635871658499</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>-3.3624944641022225E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1.6448818847967179</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>0.49998700437526622</v>
       </c>
     </row>
-    <row r="228" spans="1:4" dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1.647186322002685</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>2.3554232563894402E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1.6509186867065251</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>-4.3027018992679896E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1.661101207197955</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>2.2799996183223065E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1.675384722416057</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>-0.13153318350148069</v>
       </c>
     </row>
-    <row r="232" spans="1:4" dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1.687331017873372</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>-1.4716204566813211E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1.6900246034192581</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>-0.70806698576746774</v>
       </c>
     </row>
-    <row r="234" spans="1:4" dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1.690885063541975</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>2.7157866699223745E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1.7003303114092521</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0.65543960115004551</v>
       </c>
     </row>
-    <row r="236" spans="1:4" dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1.7017930597851469</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1.6034474575447382E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1.7045268898861781</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>4.6846692539220247E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1.714162148076297</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>-9.6466400866708252E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1.736582489648469</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>6.0517172128770973E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1.7452305645943751</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>1.8694803950931811</v>
       </c>
     </row>
-    <row r="241" spans="1:4" dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1.758642499478444</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>-3.5178258749397583E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1.760755691041346</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>-0.24383186891706166</v>
       </c>
     </row>
-    <row r="243" spans="1:4" dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1.766977377863491</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>-1.9632956454391635E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1.768270027512338</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>8.5132823645483413E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1.770020041780455</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>-1.8549674535788929</v>
       </c>
     </row>
-    <row r="246" spans="1:4" dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1.7806836727641639</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>2.1755510086097227E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:4" dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1.786056587050576</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0.14761256036180104</v>
       </c>
     </row>
-    <row r="248" spans="1:4" dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1.7999999999953089</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>2.0872339680674265E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1.8000000000074921</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>-0.69547324270655486</v>
       </c>
     </row>
-    <row r="250" spans="1:4" dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1.8070186839302389</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>-0.53426631184343443</v>
       </c>
     </row>
-    <row r="251" spans="1:4" dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1.80836178218719</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>7.5339330473209063E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:4" dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1.810444029791759</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>-4.2924742961532314E-5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1.815135520650863</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1.8120110124661042</v>
       </c>
     </row>
-    <row r="254" spans="1:4" dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1.8459368785997901</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>-0.27687493132601304</v>
       </c>
     </row>
-    <row r="255" spans="1:4" dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1.8472260459731971</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>1.6851687279551936E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1.853843950968197</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>-2.534230263573577E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1.8547811020180289</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0.1822239960660339</v>
       </c>
     </row>
-    <row r="258" spans="1:4" dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1.8623569216467779</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>-6.0145025643479977E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:4" dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1.8754562049603369</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>-2.1010357175944017E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1.876796257927984</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>1.1030216431549587</v>
       </c>
     </row>
-    <row r="261" spans="1:4" dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1.8851333822899241</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>-1.4801831498237237E-5</v>
       </c>
     </row>
-    <row r="262" spans="1:4" dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1.890504011276243</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>-0.38454057632411787</v>
       </c>
     </row>
-    <row r="263" spans="1:4" dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1.891678179007801</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0.24864880406917655</v>
       </c>
     </row>
-    <row r="264" spans="1:4" dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1.8937808409732479</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>-2.2262273812247812E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1.895230111186512</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>-1.7712653462688402E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1.895346066980603</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>3.0745094101634035E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1.9118730212230171</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.65135523683394791</v>
       </c>
     </row>
-    <row r="268" spans="1:4" dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1.9137483923186329</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>-2.7389609013916134</v>
       </c>
     </row>
-    <row r="269" spans="1:4" dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1.925757160125547</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>6.2574135015101891E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:4" dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1.9498811127886551</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>1.0136689544565888E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1.9596014081634601</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>-5.1432143860173252E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1.97004526748664</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>5.7288090690156168E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1.9720117338361789</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>-1.5005141815947374E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1.9948762255402579</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>-1.8579085516422808E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1.995162050360048</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>-8.1926560991923934E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1.9979969427663531</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>-3.5627210913529508E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1.999999999994768</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>-1.0626786823360107E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2.0000000000082379</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0.21161348680111047</v>
       </c>
     </row>
-    <row r="279" spans="1:4" dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2.001388266671849</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>-0.44847637888487474</v>
       </c>
     </row>
-    <row r="280" spans="1:4" dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2.0198881430211268</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>1.1403240965746856E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2.0298118673591632</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>0.22067559297864531</v>
       </c>
     </row>
-    <row r="282" spans="1:4" dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2.030467504632016</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>1.2841354205202418</v>
       </c>
     </row>
-    <row r="283" spans="1:4" dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2.031582134334935</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>-8.5737788439339935E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2.0361703506722582</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>-1.1563919155535878</v>
       </c>
     </row>
-    <row r="285" spans="1:4" dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2.0362212995079449</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>1.0767524331440542E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2.0414587809891152</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>6.4724968001838041E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2.0542654761864951</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>6.2011372043438147E-4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2.0759631141436841</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>6.33487826914487E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2.0816714571952688</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>-0.38065081783706739</v>
       </c>
     </row>
-    <row r="290" spans="1:4" dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2.0879117709365498</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>8.1221206078332833E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2.0903675667194812</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>-4.6576986023193013E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2.090796814016032</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>-2.6017120273761378E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2.118792548799199</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>-3.3527128584014453E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2.1201658777172332</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>2.4117683723162853</v>
       </c>
     </row>
-    <row r="295" spans="1:4" dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2.1297226925783641</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>-2.5979752769314905E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2.1456156366869008</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>-7.658194347545498E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2.1515817270459769</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>8.6157381778236702E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2.1526312127540419</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0.12777912730086871</v>
       </c>
     </row>
-    <row r="299" spans="1:4" dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2.1606644343390742</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>-6.5401785529096614E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:4" dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2.1682986988578539</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>-4.7744709385422912E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2.1780719310392258</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>0.99590212152436541</v>
       </c>
     </row>
-    <row r="302" spans="1:4" dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2.1841227243516692</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>1.0920121847604984E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2.1874560091090109</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>2.5491008158966362E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:4" dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2.1897267532103881</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>6.9989306137155996E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:4" dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2.199999999995252</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>-7.587485326427016E-4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2.2000000000069369</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>2.2911205411208901</v>
       </c>
     </row>
-    <row r="307" spans="1:4" dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2.201840176681515</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>-9.8220534609690037E-4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2.210256385419255</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>3.309239127536405E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:4" dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2.2104770487066432</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>-1.3968960622818833</v>
       </c>
     </row>
-    <row r="310" spans="1:4" dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2.2227919336550732</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>4.4004050267030456E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2.2315226742423881</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>5.5078568344569413E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2.2359036983160272</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>0.92372559734021065</v>
       </c>
     </row>
-    <row r="313" spans="1:4" dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2.2518661085505149</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>-4.1092674693086221E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:4" dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2.275873241182063</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>4.4082292871760765E-4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2.278406930117387</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>-1.9204625702273486</v>
       </c>
     </row>
-    <row r="316" spans="1:4" dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2.2903103047903528</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>-2.1284863339439755E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:4" dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2.292669593179943</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>2.8541703066511181</v>
       </c>
     </row>
-    <row r="318" spans="1:4" dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2.296063924237683</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>-1.1629226221638433E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:4" dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2.3091312235682371</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>-1.5960383098344551E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:4" dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2.32185541895007</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>0.1027590511825679</v>
       </c>
     </row>
-    <row r="321" spans="1:4" dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2.322329832702938</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>-4.7332165240870749E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2.3412792604742489</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>2.9927689657354171E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2.3438045426683969</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>-7.2102228405475879E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2.359741285702448</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>-1.5028215752928729E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2.3649399345338789</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>-1.5304563170599716</v>
       </c>
     </row>
-    <row r="326" spans="1:4" dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2.368116893999773</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>-2.5196528777203686E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:4" dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2.3716954693239942</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>0.57267280391654851</v>
       </c>
     </row>
-    <row r="328" spans="1:4" dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2.3731523850832819</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>8.7015614375411774E-4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2.3746075339800958</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>-2.9348844486049041E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:4" dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2.3759955568297122</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>-8.7600731498452839E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2.380079753911748</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>-4.5396656617816477E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:4" dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2.3810567374252152</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>-2.7757754400208521E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:4" dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2.3834109747455781</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>2.7052677302033812E-3</v>
       </c>
     </row>
-    <row r="334" spans="1:4" dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2.3968073288862759</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>-0.1054977440563995</v>
       </c>
     </row>
-    <row r="335" spans="1:4" dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2.3999999999957802</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>2.6160201605068969E-4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2.4000000000055501</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>-1.3685332306676301</v>
       </c>
     </row>
-    <row r="337" spans="1:4" dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2.4153132906426502</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>-2.0583361546353638E-4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2.4211060333569012</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>-2.28252809945515</v>
       </c>
     </row>
-    <row r="339" spans="1:4" dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2.4425326347427019</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>4.870905018009565</v>
       </c>
     </row>
-    <row r="340" spans="1:4" dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2.466998688268117</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1.1210886437062211E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:4" dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2.4688279266781259</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>-7.9164640929197019E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:4" dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2.4724414541725448</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>4.7716362762560777E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:4" dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2.474248590224406</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>1.2129016045731607E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:4" dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2.4743482737254601</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>9.1139109935385598E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2.478023705893003</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>1.6983300181819917E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2.4966429146686711</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>2.8087398195252322E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:4" dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2.504481946612048</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>5.3127514606689913E-4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2.5051682947816989</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>-0.1849160535428846</v>
       </c>
     </row>
-    <row r="349" spans="1:4" dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2.5083710089832949</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>5.155030637604241E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2.5146729877092948</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>-8.7224698859930411E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:4" dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2.514769488229684</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>-4.7633057972934602E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2.5398924071793809</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1.9890708047275417E-5</v>
       </c>
     </row>
-    <row r="353" spans="1:4" dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2.5405004622569338</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>-2.0537037315461618E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:4" dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2.5426444862484572</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0.94241524809020827</v>
       </c>
     </row>
-    <row r="355" spans="1:4" dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2.5432024946694671</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>-1.4123922047152068E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2.5454905107597949</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>6.803810115080528E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:4" dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2.5495944377906801</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>-4.4790541306168642E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:4" dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2.5682272306309679</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>0.67703047930380034</v>
       </c>
     </row>
-    <row r="359" spans="1:4" dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2.570382555847369</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>-0.62979681439591861</v>
       </c>
     </row>
-    <row r="360" spans="1:4" dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2.575582132031724</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>8.3511611935151153E-4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2.5928596026944661</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>3.4638109844531634E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:4" dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2.599999999996307</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>-2.4955304480587512E-4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2.600000000004163</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>-1.426653149975746</v>
       </c>
     </row>
-    <row r="364" spans="1:4" dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2.6032232630803782</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>-4.4864166823949315E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:4" dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2.623741591966577</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>2.8558592610934963E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:4" dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2.6272987491604112</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>-3.3552493125822425E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:4" dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2.6279886739219291</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>-1.8990675727801717E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2.652256077222547</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>-6.3496598198986539E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2.6582299056143679</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>-5.4013653380784073E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:4" dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2.6611230454558639</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>7.9021705361801003E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2.663036979194771</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>1.8588242352174468E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2.6644731443966969</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>1.1188549021529411E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2.6647756764359438</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>-1.2998063010936563E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2.6649952937197181</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>-8.1843160747576988E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:4" dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2.7003583193412748</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>-6.7338620865922672E-4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2.7012902877425411</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>-6.6058925688273443E-4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2.7055982133485008</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>-9.351256241315703E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2.7106682438724361</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>3.16085173542006E-3</v>
       </c>
     </row>
-    <row r="379" spans="1:4" dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2.720806835970238</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1.7872199960114632E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:4" dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2.7213636293668082</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>-1.7692378019168432E-4</v>
       </c>
     </row>
-    <row r="381" spans="1:4" dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2.7217338432184199</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>0.37751589523925555</v>
       </c>
     </row>
-    <row r="382" spans="1:4" dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2.724614428390951</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>-1.0577044473233971E-4</v>
       </c>
     </row>
-    <row r="383" spans="1:4" dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2.7300780254750632</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>-0.13020688271101549</v>
       </c>
     </row>
-    <row r="384" spans="1:4" dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2.7470744036118031</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>-5.5734505963674482E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:4" dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2.7537945416557612</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>7.0066337049719107E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:4" dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2.7648391816146232</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>-3.7816155421458171E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2.7773255186161059</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>2.7990427801900513E-3</v>
       </c>
     </row>
-    <row r="388" spans="1:4" dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2.783718655787343</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>1.4529067183643151E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:4" dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2.7899700708419619</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>-1.4145207847288444E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2.7951001396051911</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>6.2806943238886831E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2.7999999999968348</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>-1.5316804253440403E-4</v>
       </c>
     </row>
-    <row r="392" spans="1:4" dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2.8000000000027749</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>1.753396632072219</v>
       </c>
     </row>
-    <row r="393" spans="1:4" dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2.80472099118214</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>-2.4107615712364354E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2.8188894854101672</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>4.0070255951228026E-3</v>
       </c>
     </row>
-    <row r="395" spans="1:4" dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2.8291714872781868</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>-1.1123659867155855E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:4" dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2.832816953086621</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>1.6137486549874357E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:4" dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2.8372118536818429</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>9.6273183099224863E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:4" dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2.8629918973011792</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>-3.4796667436098844E-3</v>
       </c>
     </row>
-    <row r="399" spans="1:4" dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2.8811083621534248</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>4.6567315404392774E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:4" dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2.8888933800101229</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>-2.1059299206205983E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:4" dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2.8992232905868942</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>2.4134050393060562E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:4" dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2.903639664064714</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>2.7061790694256293E-3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2.9049964952738949</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>-0.10276571869594864</v>
       </c>
     </row>
-    <row r="404" spans="1:4" dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2.9053103948829881</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>-1.7311654095221105E-3</v>
       </c>
     </row>
-    <row r="405" spans="1:4" dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2.9095298130452809</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>8.4323724461522753E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:4" dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2.9098821120515952</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>-2.5352864083485931E-3</v>
       </c>
     </row>
-    <row r="407" spans="1:4" dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2.9132018020220078</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>-6.0264866735744134E-4</v>
       </c>
     </row>
-    <row r="408" spans="1:4" dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2.9302460538473931</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>1.4451876868563858E-5</v>
       </c>
     </row>
-    <row r="409" spans="1:4" dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2.941101503406367</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>-0.11635806601443383</v>
       </c>
     </row>
-    <row r="410" spans="1:4" dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2.942732735928665</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>1.8201841680350948E-4</v>
       </c>
     </row>
-    <row r="411" spans="1:4" dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2.9449696565218462</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>-3.1672600050818185E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2.9488452270070709</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>1.3987888963224938E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:4" dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2.959758944215368</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>-4.5726413900354944E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2.98415269025441</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>2.2563682500441498E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:4" dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2.985229239277821</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>-8.0421699131602003E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:4" dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2.986521772605625</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>3.7441295326423756E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:4" dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2.992343708562224</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1.2101350415532474E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:4" dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2.999999999997363</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>5.7037485885405881E-5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>3.0000000000013878</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>-0.21779196552159191</v>
       </c>
     </row>
-    <row r="420" spans="1:4" dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>3.0005850834196912</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>8.448904950633343E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:4" dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>3.019245771440235</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>-9.3955437963754822E-3</v>
       </c>
     </row>
-    <row r="422" spans="1:4" dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>3.0451504600970649</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1.2484445013357146E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:4" dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3.0495002986271968</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>-3.6667837755638691E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:4" dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3.050389623419409</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>-5.724542849710007E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:4" dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3.067336433910314</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>1.4348563204543457E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:4" dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3.077146163078829</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>7.2116683556099681E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:4" dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3.077578488132545</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>3.7946321303587698E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:4" dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3.0778639751570229</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>-1.7219489007898818E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:4" dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3.078842961062628</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>-3.3521378271809451E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:4" dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3.086504306157952</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>-1.3267206837619494E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:4" dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>3.0889540529688539</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>2.9034833020197878E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:4" dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3.0966662483167622</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>2.7968643692876296E-3</v>
       </c>
     </row>
-    <row r="433" spans="1:4" dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3.1141049056852501</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>-1.1946431680268522E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3.1172962102037101</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>-1.0966143460251786E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3.121548545291601</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1.6006886158825429E-3</v>
       </c>
     </row>
-    <row r="436" spans="1:4" dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3.1228440759260718</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>-3.7418603645312846E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3.1390661549905619</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>-1.6953463196420768E-4</v>
       </c>
     </row>
-    <row r="438" spans="1:4" dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>3.1438465912896012</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>-6.9131554831395714E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3.1508787374837781</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>5.8369866813514552E-4</v>
       </c>
     </row>
-    <row r="440" spans="1:4" dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>3.1618373423105841</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>-4.0019857855266129E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:4" dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3.1656428058419959</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>-4.4872234269041269E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:4" dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3.1794400187595131</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>-1.5470010759860815E-3</v>
       </c>
     </row>
-    <row r="443" spans="1:4" dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3.1999999999978899</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>-3.3928207544095453E-4</v>
       </c>
     </row>
-    <row r="444" spans="1:4" dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3.2</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>-5.2753849540474351E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:4" dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3.201132211701573</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>8.8690677484088515E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3.2050874625025738</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>-4.8829463313958899E-3</v>
       </c>
     </row>
-    <row r="447" spans="1:4" dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3.2069080705298889</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>-8.4515115132025671E-4</v>
       </c>
     </row>
-    <row r="448" spans="1:4" dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>3.2172653311686661</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>7.1362880462528394E-3</v>
       </c>
     </row>
-    <row r="449" spans="1:4" dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>3.2175718607058492</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>2.512781311484432E-4</v>
       </c>
     </row>
-    <row r="450" spans="1:4" dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>3.2434196356362062</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>-1.1497680367135298E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:4" dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>3.256137244584913</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>4.5549794021426063E-4</v>
       </c>
     </row>
-    <row r="452" spans="1:4" dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3.2600061061917578</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>-1.1425810978939599E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:4" dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3.2603178432829552</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>-7.2860619547458316E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:4" dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3.2691176296459439</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>9.6991292602867946E-3</v>
       </c>
     </row>
-    <row r="455" spans="1:4" dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3.2692552545025122</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>9.1802214176470425E-3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>3.2797718713791371</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>-7.1256350336593708E-4</v>
       </c>
     </row>
-    <row r="457" spans="1:4" dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3.286537880030695</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>5.1114425958169955E-3</v>
       </c>
     </row>
-    <row r="458" spans="1:4" dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3.293347169294552</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>2.6360123509495709E-4</v>
       </c>
     </row>
-    <row r="459" spans="1:4" dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3.2964030537823259</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>2.0258597244212717E-3</v>
       </c>
     </row>
-    <row r="460" spans="1:4" dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3.2970631538780779</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>4.2884732833540329E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:4" dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3.3172396466203939</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>3.5842441785663398E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>3.3191597865125639</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>-1.9731682332403471E-3</v>
       </c>
     </row>
-    <row r="463" spans="1:4" dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>3.327329515863751</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>-1.1939114319140809E-3</v>
       </c>
     </row>
-    <row r="464" spans="1:4" dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3.3381903983673649</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>-1.3404849272218354E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:4" dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3.349129271332774</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>-3.331734072985649E-3</v>
       </c>
     </row>
-    <row r="466" spans="1:4" dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3.3522493284456472</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>-3.1460252680889038E-4</v>
       </c>
     </row>
-    <row r="467" spans="1:4" dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3.354761480228599</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>8.8114982468704924E-4</v>
       </c>
     </row>
-    <row r="468" spans="1:4" dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3.3548996410367429</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>-2.0162116899930622E-3</v>
       </c>
     </row>
-    <row r="469" spans="1:4" dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>3.3684117074321889</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>-5.785980603427314E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:4" dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3.370728559656865</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>1.2210636158706577E-3</v>
       </c>
     </row>
-    <row r="471" spans="1:4" dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3.3880347246753919</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>2.3703155364216788E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:4" dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>3.391687555801985</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>-6.0436794143878788E-3</v>
       </c>
     </row>
-    <row r="473" spans="1:4" dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>3.3999999999984181</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>4.5842267834717238E-4</v>
       </c>
     </row>
-    <row r="474" spans="1:4" dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3.3999999999986121</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>-6.7718890531790754E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:4" dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3.4079948831139131</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>-3.9692976461481152E-3</v>
       </c>
     </row>
-    <row r="476" spans="1:4" dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3.4309741495930601</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>2.3824130985303426E-3</v>
       </c>
     </row>
-    <row r="477" spans="1:4" dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3.4368496293479689</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1.5678519320802203E-6</v>
       </c>
     </row>
-    <row r="478" spans="1:4" dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3.4451711780384291</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1.3196336981883841E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>3.4467038357517219</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>9.1525624800611917E-3</v>
       </c>
     </row>
-    <row r="480" spans="1:4" dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>3.4578966712195078</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>2.9941503818064319E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>3.4637779408271721</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>7.5405196921660049E-3</v>
       </c>
     </row>
-    <row r="482" spans="1:4" dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3.468092569607832</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>-2.1450291430930385E-4</v>
       </c>
     </row>
-    <row r="483" spans="1:4" dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3.4945383055320551</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>-1.520911471030902E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:4" dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3.4955275804934418</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>-9.1827390582789759E-3</v>
       </c>
     </row>
-    <row r="485" spans="1:4" dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3.4985112540617682</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>-5.9581098638984253E-5</v>
       </c>
     </row>
-    <row r="486" spans="1:4" dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3.5010946643564398</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>5.646594553970527E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:4" dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3.505187958821486</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>-2.114139760742872E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:4" dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>3.508625777789665</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>2.1562764336697368E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:4" dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3.527274775571883</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>-2.0414960572183047E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:4" dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3.5318664218840978</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>-7.0223887056050551E-4</v>
       </c>
     </row>
-    <row r="491" spans="1:4" dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3.535908404644299</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>-1.8040266826541854E-3</v>
       </c>
     </row>
-    <row r="492" spans="1:4" dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>3.5546055989207961</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>-2.923805808859227E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:4" dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>3.556417988178445</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>-3.7857607956839016E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:4" dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>3.5588773717503628</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>-9.714737787687044E-4</v>
       </c>
     </row>
-    <row r="495" spans="1:4" dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>3.5645077119822588</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>-9.804914406337129E-4</v>
       </c>
     </row>
-    <row r="496" spans="1:4" dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>3.5907330130552562</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>5.1998670902914726E-3</v>
       </c>
     </row>
-    <row r="497" spans="1:4" dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>3.5973225877885411</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>1.694245278265211E-3</v>
       </c>
     </row>
-    <row r="498" spans="1:4" dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3.5974549370936102</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>9.759349780944622E-3</v>
       </c>
     </row>
-    <row r="499" spans="1:4" dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>3.5999999999983339</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>0.11500835519862435</v>
       </c>
     </row>
-    <row r="500" spans="1:4" dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>3.5999999999989449</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>4.8481363282266646E-4</v>
       </c>
     </row>
-    <row r="501" spans="1:4" dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>3.618771671237651</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>-1.3160963473277721E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:4" dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>3.6203953578225199</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>-1.3699416106892065E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:4" dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>3.6239979428165161</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>-3.2711273822488938E-4</v>
       </c>
     </row>
-    <row r="504" spans="1:4" dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>3.6399578481851269</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>-8.562504291771586E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:4" dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>3.6457196450514662</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>-1.972413235375124E-3</v>
       </c>
     </row>
-    <row r="506" spans="1:4" dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>3.6521842489198408</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>2.5736480188963541E-3</v>
       </c>
     </row>
-    <row r="507" spans="1:4" dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>3.6624677632087028</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>5.5277238880405664E-4</v>
       </c>
     </row>
-    <row r="508" spans="1:4" dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>3.673509558133516</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>-2.4028166157469468E-3</v>
       </c>
     </row>
-    <row r="509" spans="1:4" dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3.6775965487229678</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>3.7450381593229416E-3</v>
       </c>
     </row>
-    <row r="510" spans="1:4" dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>3.6791028312551761</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>-7.9963792410347751E-3</v>
       </c>
     </row>
-    <row r="511" spans="1:4" dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>3.6840708843850751</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>1.623030390527127E-4</v>
       </c>
     </row>
-    <row r="512" spans="1:4" dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>3.6866175253381579</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>1.8366132099258122E-3</v>
       </c>
     </row>
-    <row r="513" spans="1:4" dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>3.68802908547966</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>4.2262331030422698E-4</v>
       </c>
     </row>
-    <row r="514" spans="1:4" dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>3.6884817519859872</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>1.6729386308401803E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:4" dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>3.6909642905416011</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>3.381808430910579E-4</v>
       </c>
     </row>
-    <row r="516" spans="1:4" dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>3.7020678505093958</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>-3.7110924759781859E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:4" dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>3.7111277965319398</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>6.4522678868543626E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:4" dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>3.720369557836936</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>-3.4206945615652306E-4</v>
       </c>
     </row>
-    <row r="519" spans="1:4" dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>3.7489559388709939</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>-2.3853153448987374E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:4" dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>3.770475169324111</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>4.553921603986104E-3</v>
       </c>
     </row>
-    <row r="521" spans="1:4" dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>3.777510903335346</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>-1.6579240433295997E-3</v>
       </c>
     </row>
-    <row r="522" spans="1:4" dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>3.7995066899612522</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>1.2259794663156266E-3</v>
       </c>
     </row>
-    <row r="523" spans="1:4" dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>3.7999999999991672</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>-7.4593102415342449E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:4" dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>3.7999999999994731</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>-2.3119775116383252E-3</v>
       </c>
     </row>
-    <row r="525" spans="1:4" dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>3.8062078115637381</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>8.7559422539344265E-3</v>
       </c>
     </row>
-    <row r="526" spans="1:4" dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3.8065918563269681</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>-4.9157414686810882E-3</v>
       </c>
     </row>
-    <row r="527" spans="1:4" dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>3.811838197235967</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>-6.5774348182671867E-3</v>
       </c>
     </row>
-    <row r="528" spans="1:4" dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>3.8131937760995158</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>-1.0799228408381011E-3</v>
       </c>
     </row>
-    <row r="529" spans="1:4" dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>3.8147843536249049</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>-1.0717088972973393E-3</v>
       </c>
     </row>
-    <row r="530" spans="1:4" dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>3.8155593532398742</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>7.8641665825980432E-5</v>
       </c>
     </row>
-    <row r="531" spans="1:4" dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>3.8160652953302709</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>-8.019453295642654E-4</v>
       </c>
     </row>
-    <row r="532" spans="1:4" dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>3.8297319641560899</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>3.3464331849275761E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:4" dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>3.836904863235362</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>4.0805044432098815E-3</v>
       </c>
     </row>
-    <row r="534" spans="1:4" dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>3.839599506211302</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>-3.0615638477978608E-4</v>
       </c>
     </row>
-    <row r="535" spans="1:4" dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>3.8403335433086649</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>1.0986425461066345E-3</v>
       </c>
     </row>
-    <row r="536" spans="1:4" dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>3.8404291133453938</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>-2.2591852271835597E-3</v>
       </c>
     </row>
-    <row r="537" spans="1:4" dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>3.8415225704601941</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>-2.4205002074036645E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:4" dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>3.8455707418214282</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>-7.5544707628542255E-4</v>
       </c>
     </row>
-    <row r="539" spans="1:4" dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>3.8496243178819598</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>3.4540348445828727E-3</v>
       </c>
     </row>
-    <row r="540" spans="1:4" dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>3.8536446656664589</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>-1.4412202405642385E-4</v>
       </c>
     </row>
-    <row r="541" spans="1:4" dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>3.8699012899877872</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>5.6042289511911911E-4</v>
       </c>
     </row>
-    <row r="542" spans="1:4" dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>3.8750898820078929</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>-4.5651559706149869E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:4" dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>3.8773933412566608</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>1.6821853498884096E-3</v>
       </c>
     </row>
-    <row r="544" spans="1:4" dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>4</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>3.3010763078968881E-3</v>
       </c>
     </row>
-    <row r="545" spans="1:4" dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>4</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>-2.20419446083089E-3</v>
       </c>
     </row>
-    <row r="546" spans="1:4" dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>4</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>4.6679777732848318E-4</v>
       </c>
     </row>
-    <row r="547" spans="1:4" dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>4</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>2.959039443264401E-4</v>
       </c>
     </row>
-    <row r="548" spans="1:4" dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>4</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>-6.2304453559937681E-4</v>
       </c>
     </row>
-    <row r="549" spans="1:4" dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>4</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1.0668942229062348E-3</v>
       </c>
     </row>
-    <row r="550" spans="1:4" dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>4</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>-6.5692981296816739E-4</v>
       </c>
     </row>
-    <row r="551" spans="1:4" dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>4</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>-3.5083865398535211E-4</v>
       </c>
     </row>
-    <row r="552" spans="1:4" dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>4</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>1.8704459775197219E-3</v>
       </c>
     </row>
-    <row r="553" spans="1:4" dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>4</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>-1.7080794271995517E-3</v>
       </c>
     </row>
-    <row r="554" spans="1:4" dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>4</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>2.2151539283255359E-3</v>
       </c>
     </row>
-    <row r="555" spans="1:4" dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>4</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>-2.0957825970252535E-3</v>
       </c>
     </row>
-    <row r="556" spans="1:4" dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>4</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>5.2414715067014236E-4</v>
       </c>
     </row>
-    <row r="557" spans="1:4" dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>4</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>-3.207510522971752E-4</v>
       </c>
     </row>
-    <row r="558" spans="1:4" dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>4</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>-2.233609689426637E-3</v>
       </c>
     </row>
-    <row r="559" spans="1:4" dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>4</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>2.382917767220391E-3</v>
       </c>
     </row>
-    <row r="560" spans="1:4" dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>4</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>-3.5032147490209257E-3</v>
       </c>
     </row>
-    <row r="561" spans="1:4" dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>4</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>2.9259858635301231E-3</v>
       </c>
     </row>
-    <row r="562" spans="1:4" dyDescent="0.2">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>4</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>-3.7119636290878538E-3</v>
       </c>
     </row>
-    <row r="563" spans="1:4" dyDescent="0.2">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>4</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>7.8207999997368782E-4</v>
       </c>
     </row>
-    <row r="564" spans="1:4" dyDescent="0.2">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>4</v>
       </c>
@@ -10629,7 +10629,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
@@ -10645,15 +10645,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A27416-FB27-4862-AAB9-07289CB492DC}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10667,2306 +10667,2320 @@
         <v>-2.7399482861795024E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.027399482861795024</v>
+        <v>-2.7399482861795024E-2</v>
       </c>
       <c r="D2">
-        <v>-0.027399482861795024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" dyDescent="0.2">
+        <v>-2.7399482861795024E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0.4000000000016648</v>
       </c>
       <c r="C3">
-        <v>-0.010076059958257964</v>
+        <v>0.15308554730909377</v>
       </c>
       <c r="D3">
-        <v>-0.010076059958257964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" dyDescent="0.2">
+        <v>-6.6861174567933584E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>4.0</v>
+        <v>0.80000000000333005</v>
       </c>
       <c r="C4">
-        <v>0.012570488707433798</v>
+        <v>0.60958856645171344</v>
       </c>
       <c r="D4">
-        <v>0.012570488707433798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" dyDescent="0.2">
+        <v>3.3760572865723426E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4.0</v>
+        <v>1.2000000000049951</v>
       </c>
       <c r="C5">
-        <v>-1.403491876982129</v>
+        <v>0.75454458338386476</v>
       </c>
       <c r="D5">
-        <v>-2.0401116493497105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" dyDescent="0.2">
+        <v>0.11792481101628338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.3999999999992566</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>1.6000000000066601</v>
       </c>
       <c r="C6">
-        <v>0.0456375216944254</v>
+        <v>0.54921658065627244</v>
       </c>
       <c r="D6">
-        <v>0.0456375216944254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" dyDescent="0.2">
+        <v>-8.7403191711308947E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.7999999999982277</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>2.0000000000082379</v>
       </c>
       <c r="C7">
-        <v>-0.0863918307193834</v>
+        <v>0.65946266660080455</v>
       </c>
       <c r="D7">
-        <v>-0.0863918307193834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" dyDescent="0.2">
+        <v>2.2842894233223165E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2.8000000000027749</v>
+        <v>2.4000000000055501</v>
       </c>
       <c r="C8">
-        <v>0.44429564648120978</v>
+        <v>0.71533324116464525</v>
       </c>
       <c r="D8">
-        <v>-0.1923241258863716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" dyDescent="0.2">
+        <v>7.8713468797063868E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>2.8000000000027749</v>
       </c>
       <c r="C9">
-        <v>0.74539074836194974</v>
+        <v>0.44429564648120978</v>
       </c>
       <c r="D9">
-        <v>0.10877097599436836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" dyDescent="0.2">
+        <v>-0.1923241258863716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>3.5999999999983339</v>
+        <v>3.2</v>
       </c>
       <c r="C10">
-        <v>1.0963187865189814</v>
+        <v>0.74539074836194974</v>
       </c>
       <c r="D10">
-        <v>0.45969901415140002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" dyDescent="0.2">
+        <v>0.10877097599436836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
+        <v>3.5999999999983339</v>
+      </c>
+      <c r="C11">
+        <v>1.0963187865189814</v>
+      </c>
+      <c r="D11">
+        <v>0.45969901415140002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-1.403491876982129</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>-2.0401116493497105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>0.22116454403540531</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>3.624297277798239</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>0.60056798410196288</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-3.6051788265618501E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>0.27005618541875598</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1.6815709088891999</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.6466196291177877</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>9.9998567502063151E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>0.29720625306965542</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1.368659813620029</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>0.69049986867934776</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>5.3880096311766379E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>0.29918510495020662</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>3.002563711672618</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>0.74474589344078679</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.10812612107320541</v>
       </c>
     </row>
-    <row r="16" spans="1:4" dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>0.31704317105459928</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>2.6389858047233741</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>0.63890519227548759</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>2.2854199079062054E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>0.33460335373215178</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>0.95183148019115504</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0.46039293116105584</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>2.7486993599181442E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>0.33911117480645342</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3.330277651731222</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.60449245406209695</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>-3.2127318305484431E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>0.37622101698646382</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0.22083265523576989</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>1.6501835058285844E-2</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1.6501835058285844E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>0.38429055383092747</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2.2490323074536982</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>0.50587224322414714</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>-0.13074752914343424</v>
       </c>
     </row>
-    <row r="21" spans="1:4" dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>0.38434094646953032</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0.58793083622542375</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>-2.1749923779953273E-2</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>-8.4668119118358628E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>0.39999999999925662</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>4.5637521694425399E-2</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>4.5637521694425399E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>0.4000000000016648</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>2.7143809407083608</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>2.0777611683407793</v>
       </c>
     </row>
-    <row r="24" spans="1:4" dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>0.48128203516565149</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.888603634756876</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>0.66587645623741121</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>2.9256683869829825E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>0.57179263885847331</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>1.5505910960541971</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>0.82874815316559358</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>0.19283420125424577</v>
       </c>
     </row>
-    <row r="26" spans="1:4" dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>0.58787608940431391</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>3.6155060150598799</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>0.52774432071294342</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>-0.10887545165463797</v>
       </c>
     </row>
-    <row r="27" spans="1:4" dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>0.59947997763747474</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>3.2086086488121741</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>0.62907642685333875</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>-7.5433455142426276E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>0.62807000765066257</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.82000521839261109</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>-9.1423876142397498E-2</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>-0.14755844740245186</v>
       </c>
     </row>
-    <row r="29" spans="1:4" dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.64189494561416305</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>2.847707891124883</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>0.65319822797047244</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>1.6578455602891062E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>0.66866970800580894</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>1.1581576095154531</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>0.22496869080300369</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>-8.2831007592949035E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>0.67298515545176807</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0.33706509518753103</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>-1.4329765335153222E-2</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>-1.4329765335153222E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>0.68805580068463057</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>2.4470334123813222</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>0.74736334997463405</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>0.11074357760705267</v>
       </c>
     </row>
-    <row r="33" spans="1:4" dyDescent="0.2">
-      <c r="A33">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>0.76885272923724324</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>2.1237676808291259</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>0.63548016079150937</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>-1.1396115760720082E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" dyDescent="0.2">
-      <c r="A34">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>0.79999999999822768</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>-8.6391830719383403E-2</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>-8.6391830719383403E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" dyDescent="0.2">
-      <c r="A35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>0.80000000000333005</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>-0.97961589657379056</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>-1.6162356689413719</v>
       </c>
     </row>
-    <row r="36" spans="1:4" dyDescent="0.2">
-      <c r="A36">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>0.80339184361867222</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.57915637452637314</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>0.13830662966173662</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.13830662966173662</v>
       </c>
     </row>
-    <row r="37" spans="1:4" dyDescent="0.2">
-      <c r="A37">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>0.81852097360136311</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>3.3707992824672659</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>0.21493483858324702</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>-0.42168493378433436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" dyDescent="0.2">
-      <c r="A38">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>0.82730992136016146</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>1.4184506288192</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>0.23542044372355181</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>-0.17278991125449983</v>
       </c>
     </row>
-    <row r="39" spans="1:4" dyDescent="0.2">
-      <c r="A39">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>0.89270010333458105</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>1.726659813426805</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>0.66147282487040415</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>6.7185836528430021E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" dyDescent="0.2">
-      <c r="A40">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>0.91029157744834921</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>3.0847973408171758</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>0.78315540687662988</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>0.1465356345090485</v>
       </c>
     </row>
-    <row r="41" spans="1:4" dyDescent="0.2">
-      <c r="A41">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>0.95150562669469763</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>3.6648459987363569</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>0.91047966580523432</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>0.27385989343765293</v>
       </c>
     </row>
-    <row r="42" spans="1:4" dyDescent="0.2">
-      <c r="A42">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>0.99842776682046297</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>0.8672336006826572</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>6.3499268119716498E-2</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>6.3499268119716498E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" dyDescent="0.2">
-      <c r="A43">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>0.99989805208055471</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>2.353855095406916</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>0.655744062866086</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>1.9124290498504615E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" dyDescent="0.2">
-      <c r="A44">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>1.0043438287268911</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>0.30618025484916261</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>2.9857465582565308E-2</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>2.9857465582565308E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" dyDescent="0.2">
-      <c r="A45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>1.023278019416193</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>1.13033142501446</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>-1.4765557359264121E-2</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>-3.2598515993500748E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" dyDescent="0.2">
-      <c r="A46">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>1.0580237487777211</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>2.691788501636831</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>0.66086799090430592</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>2.4248218536724542E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" dyDescent="0.2">
-      <c r="A47">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>1.12066093714478</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>2.1080029343497131</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>0.85908930733806055</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>0.22272118270182839</v>
       </c>
     </row>
-    <row r="48" spans="1:4" dyDescent="0.2">
-      <c r="A48">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>1.1321833652951869</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>0.55652323496504064</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>-0.10887725327463478</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>-0.10887725327463478</v>
       </c>
     </row>
-    <row r="49" spans="1:4" dyDescent="0.2">
-      <c r="A49">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>1.157562144682649</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>3.3617780061214559</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>0.97177221191298035</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <v>0.33515243954539897</v>
       </c>
     </row>
-    <row r="50" spans="1:4" dyDescent="0.2">
-      <c r="A50">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>1.186267681156592</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>3.028101713052489</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>0.39644770325135803</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>-0.24017206911622335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" dyDescent="0.2">
-      <c r="A51">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>1.194406091396085</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>1.4217344352488519</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>4.5312816474049826E-2</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>-3.2470933499858683E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" dyDescent="0.2">
-      <c r="A52">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>1.1999999999970601</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>2.1035273952809439E-2</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>2.1035273952809439E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" dyDescent="0.2">
-      <c r="A53">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>1.2000000000049951</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>4</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>1.6472464567641993</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>1.0106266843966178</v>
       </c>
     </row>
-    <row r="54" spans="1:4" dyDescent="0.2">
-      <c r="A54">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>1.2697549802569359</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>2.4441083458562129</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>0.69342851680050321</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>5.6808744432921832E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" dyDescent="0.2">
-      <c r="A55">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>1.3000963996567469</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>1.071401273727282</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>2.0494958029630625E-2</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>2.0494958029630625E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" dyDescent="0.2">
-      <c r="A56">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>1.3103173994318389</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>1.8108629913684859</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>0.13963214853512315</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>-0.1792233293181664</v>
       </c>
     </row>
-    <row r="57" spans="1:4" dyDescent="0.2">
-      <c r="A57">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>1.3674589921029221</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>3.6998488900261228</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>0.14826310395131986</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>-0.48835666841626152</v>
       </c>
     </row>
-    <row r="58" spans="1:4" dyDescent="0.2">
-      <c r="A58">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>1.4032697635459881</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>3.1637071966578181</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>0.60780793937792132</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>-2.8811832989660058E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" dyDescent="0.2">
-      <c r="A59">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>1.4111879468743671</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>2.8288837183786408</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <v>0.56257034085809354</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>-7.404943150948784E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" dyDescent="0.2">
-      <c r="A60">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>1.4175026080004329</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>0.36433682441603082</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>-5.7979915027625055E-2</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>-5.7979915027625055E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" dyDescent="0.2">
-      <c r="A61">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>1.433305024099971</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>0.75506006863738073</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>-1.7491097688551772E-3</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>-1.7491097688551772E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" dyDescent="0.2">
-      <c r="A62">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>1.4824423582933131</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>2.1887636794112768</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>0.5523394168618222</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>4.1854846511828914E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" dyDescent="0.2">
-      <c r="A63">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>1.4955967963305219</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>1.5622252921332309</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>-2.4838525354159979E-2</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>-3.1786426147239255E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" dyDescent="0.2">
-      <c r="A64">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>1.5463168383708781</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>2.4933561459538991</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <v>0.74326118017833542</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>0.11103707788070105</v>
       </c>
     </row>
-    <row r="65" spans="1:4" dyDescent="0.2">
-      <c r="A65">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>1.5573423698964579</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>1.291650962576542</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>2.3842381962877572E-2</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>2.3842381962877572E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" dyDescent="0.2">
-      <c r="A66">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>1.559112079828751</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>3.4086484370736021</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>0.62848774474466318</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>-8.1320276229182031E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" dyDescent="0.2">
-      <c r="A67">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>1.599999999995892</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>0</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>4.7084003616502966E-2</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>4.7084003616502966E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" dyDescent="0.2">
-      <c r="A68">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>1.6000000000066601</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>4</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>-0.10026815779421407</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>-0.73688793016179543</v>
       </c>
     </row>
-    <row r="69" spans="1:4" dyDescent="0.2">
-      <c r="A69">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>1.6159074661663491</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>1.025337733678088</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>5.0946339895977397E-2</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>5.0946339895977397E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" dyDescent="0.2">
-      <c r="A70">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>1.6736703456570221</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>1.859870583781547</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>3.4215215564844415E-2</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>-1.870977240599387E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" dyDescent="0.2">
-      <c r="A71">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>1.7076578228841439</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>0.56271766353005581</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>-5.5998761347484341E-2</v>
       </c>
-      <c r="D71">
+      <c r="D72">
         <v>-5.5998761347484341E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" dyDescent="0.2">
-      <c r="A72">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>1.748096543207394</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>3.0758177863606262</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>0.73557254037542652</v>
       </c>
-      <c r="D72">
+      <c r="D73">
         <v>9.8952768007845138E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" dyDescent="0.2">
-      <c r="A73">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>1.7581767377675319</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>3.717720886185218</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>1.0750142379525029</v>
       </c>
-      <c r="D73">
+      <c r="D74">
         <v>0.43839446558492157</v>
       </c>
     </row>
-    <row r="74" spans="1:4" dyDescent="0.2">
-      <c r="A74">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>1.796790036146521</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>2.664988263188842</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>0.77837362992133596</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>0.16865361979519433</v>
       </c>
     </row>
-    <row r="75" spans="1:4" dyDescent="0.2">
-      <c r="A75">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>1.807525189957409</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>1.4959953932593311</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>4.0540456815682711E-2</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>4.0540456815682711E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" dyDescent="0.2">
-      <c r="A76">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>1.833106061821951</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>2.265367969315101</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>2.2552224237954634E-2</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>-0.22852967957557394</v>
       </c>
     </row>
-    <row r="77" spans="1:4" dyDescent="0.2">
-      <c r="A77">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>1.836593788177018</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>0.29350948358105938</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>4.7694699425572161E-2</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>4.7694699425572161E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" dyDescent="0.2">
-      <c r="A78">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>1.8619198502650569</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>0.83748276267633281</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>-2.4394854733022088E-2</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>-2.4394854733022088E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" dyDescent="0.2">
-      <c r="A79">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>1.883274719908907</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>1.149698159263238</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>-3.9430793990365989E-2</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>-3.9430793990365989E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" dyDescent="0.2">
-      <c r="A80">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>1.920108297666018</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>3.4330178570903729</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>0.37728207529761665</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>-0.25933769706996473</v>
       </c>
     </row>
-    <row r="81" spans="1:4" dyDescent="0.2">
-      <c r="A81">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>1.999999999994768</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>0</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>-6.8055355705869194E-2</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>-6.8055355705869194E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" dyDescent="0.2">
-      <c r="A82">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>2</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>2.0000000000015028</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>1.5263008471506216E-2</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>1.5263008471506216E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" dyDescent="0.2">
-      <c r="A83">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>2.0000000000082379</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>4</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>1.2072779795977371</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>0.5706582072301557</v>
       </c>
     </row>
-    <row r="84" spans="1:4" dyDescent="0.2">
-      <c r="A84">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>2.0615316136542212</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>0.55539266423123013</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>7.1501021202623707E-2</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>7.1501021202623707E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" dyDescent="0.2">
-      <c r="A85">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>2.0943659971783788</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>2.8396275178586272</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>0.4781951515078578</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>-6.181838784683763E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" dyDescent="0.2">
-      <c r="A86">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>2.0972939587804209</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>3.1478563391985421</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>0.75794563291760464</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>0.12132586055002326</v>
       </c>
     </row>
-    <row r="87" spans="1:4" dyDescent="0.2">
-      <c r="A87">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>2.1170161603109792</v>
       </c>
-      <c r="B87">
+      <c r="B88">
         <v>1.7329153196058169</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>2.8118783441292032E-2</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>2.8118783441292032E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" dyDescent="0.2">
-      <c r="A88">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>2.1411025575308602</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>3.6981652690618398</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>0.43629398823999788</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>-0.20032578412758351</v>
       </c>
     </row>
-    <row r="89" spans="1:4" dyDescent="0.2">
-      <c r="A89">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>2.1572607753025612</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>2.486111774033108</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>2.180410136155609E-2</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>-0.13348493381235974</v>
       </c>
     </row>
-    <row r="90" spans="1:4" dyDescent="0.2">
-      <c r="A90">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>2.1858135776751642</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>1.333828532386484</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>8.7957666930094693E-3</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>8.7957666930094693E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" dyDescent="0.2">
-      <c r="A91">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>2.2243195041470409</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>0.91987019095241584</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>-5.1431855716901981E-2</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>-5.1431855716901981E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" dyDescent="0.2">
-      <c r="A92">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>2.232870684532648</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>0.27860974930903942</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>-4.1190427923342411E-2</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>-4.1190427923342411E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" dyDescent="0.2">
-      <c r="A93">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>2.2348925598767839</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>3.4221164306029328</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>0.94035234767800957</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>0.30373257531042819</v>
       </c>
     </row>
-    <row r="94" spans="1:4" dyDescent="0.2">
-      <c r="A94">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>2.2367028142180772</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>2.1124012032616708</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>2.213885028327044E-2</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>2.213885028327044E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" dyDescent="0.2">
-      <c r="A95">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>2.3420438857875139</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>2.9703063073565499</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>0.25712843108760475</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>-0.18600100876430886</v>
       </c>
     </row>
-    <row r="96" spans="1:4" dyDescent="0.2">
-      <c r="A96">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>2.3999999999957802</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>0</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>2.7222657445037868E-2</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>2.7222657445037868E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" dyDescent="0.2">
-      <c r="A97">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>2.4000000000055501</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>4</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>0.17659372001480997</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>-0.46002605235277139</v>
       </c>
     </row>
-    <row r="98" spans="1:4" dyDescent="0.2">
-      <c r="A98">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>2.4211987073743648</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>1.513901270630337</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>-5.6969913863647456E-2</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>-5.6969913863647456E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" dyDescent="0.2">
-      <c r="A99">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>2.4247107838458621</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>2.692684637014092</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>3.2382121180009341E-2</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>-7.3910100001333495E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" dyDescent="0.2">
-      <c r="A100">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>2.4248358025138792</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>0.59001833196095121</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>-1.5775295371525187E-3</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>-1.5775295371525187E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" dyDescent="0.2">
-      <c r="A101">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>2.4425244928628671</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>3.2329869114865701</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>0.51015039965458919</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>-5.9956792721468699E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" dyDescent="0.2">
-      <c r="A102">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>2.474900412013826</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>1.819018600351906</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>2.5254291099376477E-2</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>2.5254291099376477E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" dyDescent="0.2">
-      <c r="A103">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>2.490092379627475</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>2.3672916357420259</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>5.2597960250410263E-3</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>5.2597960250410263E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" dyDescent="0.2">
-      <c r="A104">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>2.5334377498610352</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>3.6161364404925171</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>0.89540851987735137</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>0.25878874750976999</v>
       </c>
     </row>
-    <row r="105" spans="1:4" dyDescent="0.2">
-      <c r="A105">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>2.5560870537362361</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>1.1790428881352319</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>-2.4570736863994393E-2</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>-2.4570736863994393E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" dyDescent="0.2">
-      <c r="A106">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>2.567524494333326</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>2.0621403131922542</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>3.1235372202643448E-2</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>3.1235372202643448E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" dyDescent="0.2">
-      <c r="A107">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>2.5753852020081012</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>0.840394867313907</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>0.10095288782143351</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>0.10095288782143351</v>
       </c>
     </row>
-    <row r="108" spans="1:4" dyDescent="0.2">
-      <c r="A108">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>2.6260402143751191</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>0.30079071555189468</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>7.9785063983919685E-3</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>7.9785063983919685E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" dyDescent="0.2">
-      <c r="A109">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>2.6956101815861659</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>1.563944171189495</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>-1.9065318748700096E-2</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>-1.9065318748700096E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" dyDescent="0.2">
-      <c r="A110">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>2.7047669459006221</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>2.9541253008267718</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>7.3479300942167147E-2</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>-1.9298252219683551E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" dyDescent="0.2">
-      <c r="A111">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>2.7632378869466301</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>2.2583017898999929</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>0.10846307884770748</v>
       </c>
-      <c r="D111">
+      <c r="D112">
         <v>0.10846307884770748</v>
       </c>
     </row>
-    <row r="112" spans="1:4" dyDescent="0.2">
-      <c r="A112">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>2.7985319668236852</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>0.97736048071705661</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>1.7367789476413511E-2</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>1.7367789476413511E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" dyDescent="0.2">
-      <c r="A113">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>2.7999999999968348</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>0</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>-4.1458986525839264E-4</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>-4.1458986525839264E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" dyDescent="0.2">
-      <c r="A114">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>2.8000000000027749</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>4</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>1.0450749935000201</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>0.40845522113243871</v>
       </c>
     </row>
-    <row r="115" spans="1:4" dyDescent="0.2">
-      <c r="A115">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>2.8113501142600441</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>1.92880932423186</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>-6.6201324428057623E-2</v>
       </c>
-      <c r="D115">
+      <c r="D116">
         <v>-6.6201324428057623E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" dyDescent="0.2">
-      <c r="A116">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>2.8115548571683382</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>2.5625551517993199</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>-9.7541712474076309E-2</v>
       </c>
-      <c r="D116">
+      <c r="D117">
         <v>-9.7541712474076309E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" dyDescent="0.2">
-      <c r="A117">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>2.8128878457873641</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>3.3354524954581688</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>0.26839216267249355</v>
       </c>
-      <c r="D117">
+      <c r="D118">
         <v>-7.2463479127837571E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" dyDescent="0.2">
-      <c r="A118">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>2.828867596366146</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>0.6450518044072201</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>-5.0263118630705726E-2</v>
       </c>
-      <c r="D118">
+      <c r="D119">
         <v>-5.0263118630705726E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" dyDescent="0.2">
-      <c r="A119">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>2.9203955714806349</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>3.7255642789809271</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>0.46980525253317262</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>-0.10902674820153879</v>
       </c>
     </row>
-    <row r="120" spans="1:4" dyDescent="0.2">
-      <c r="A120">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>2.948433370489028</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>1.291469172993128</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <v>6.8008547636370167E-2</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>6.8008547636370167E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" dyDescent="0.2">
-      <c r="A121">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>2.961691431033127</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>1.651423768358224</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>-2.1967299985261739E-2</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>-2.1967299985261739E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" dyDescent="0.2">
-      <c r="A122">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>3.0175481395722179</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>2.8034205483322321</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>8.9681841629205283E-2</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>8.9681841629205283E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" dyDescent="0.2">
-      <c r="A123">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>3.048278493577703</v>
       </c>
-      <c r="B123">
+      <c r="B124">
         <v>0.33783127693462078</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <v>1.6404020763553323E-2</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>1.6404020763553323E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" dyDescent="0.2">
-      <c r="A124">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>3.0674583961208022</v>
       </c>
-      <c r="B124">
+      <c r="B125">
         <v>3.08685267524372</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <v>-2.7793835219220013E-2</v>
       </c>
-      <c r="D124">
+      <c r="D125">
         <v>-2.8384488747292793E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" dyDescent="0.2">
-      <c r="A125">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>3.0783491428524239</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <v>2.2513179966780319</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <v>-0.13348094566843133</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>-0.13348094566843133</v>
       </c>
     </row>
-    <row r="126" spans="1:4" dyDescent="0.2">
-      <c r="A126">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>3.083886611518913</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>0.93084367073579644</v>
       </c>
-      <c r="C126">
+      <c r="C127">
         <v>-5.4329158507281226E-2</v>
       </c>
-      <c r="D126">
+      <c r="D127">
         <v>-5.4329158507281226E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" dyDescent="0.2">
-      <c r="A127">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>3.1381372493374591</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>1.895518623133178</v>
       </c>
-      <c r="C127">
+      <c r="C128">
         <v>4.6013271405062383E-3</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>4.6013271405062383E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" dyDescent="0.2">
-      <c r="A128">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>3.1520944810316012</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>2.5812511508409051</v>
       </c>
-      <c r="C128">
+      <c r="C129">
         <v>0.15607290873135574</v>
       </c>
-      <c r="D128">
+      <c r="D129">
         <v>0.15607290873135574</v>
       </c>
     </row>
-    <row r="129" spans="1:4" dyDescent="0.2">
-      <c r="A129">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>3.1744009846418302</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>0.64196077851875921</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>2.2835283492208282E-2</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>2.2835283492208282E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" dyDescent="0.2">
-      <c r="A130">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>3.1795966230274799</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>3.4014104215835261</v>
       </c>
-      <c r="C130">
+      <c r="C131">
         <v>2.5821791059587409E-3</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>-7.16258586991005E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" dyDescent="0.2">
-      <c r="A131">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>3.1999999999978899</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>0</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>1.6513787884697869E-4</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>1.6513787884697869E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" dyDescent="0.2">
-      <c r="A132">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>3.2</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>4</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>0.47478835982598105</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <v>-0.10103963375805142</v>
       </c>
     </row>
-    <row r="133" spans="1:4" dyDescent="0.2">
-      <c r="A133">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
         <v>3.2264075864813031</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>1.553881329879057</v>
       </c>
-      <c r="C133">
+      <c r="C134">
         <v>4.6753651152106807E-2</v>
       </c>
-      <c r="D133">
+      <c r="D134">
         <v>4.6753651152106807E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" dyDescent="0.2">
-      <c r="A134">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>3.308172501751836</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>3.669632305163633</v>
       </c>
-      <c r="C134">
+      <c r="C135">
         <v>0.11965471530366474</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>-6.444770328517084E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" dyDescent="0.2">
-      <c r="A135">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
         <v>3.3318967710720102</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>1.1851279111340109</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>-4.8739488076047985E-2</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>-4.8739488076047985E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" dyDescent="0.2">
-      <c r="A136">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
         <v>3.3518660176397259</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>2.832318462950441</v>
       </c>
-      <c r="C136">
+      <c r="C137">
         <v>-3.0943532181161838E-2</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <v>-3.0943532181161838E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" dyDescent="0.2">
-      <c r="A137">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
         <v>3.3568860847647128</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>3.1758391810471909</v>
       </c>
-      <c r="C137">
+      <c r="C138">
         <v>7.9990543207688877E-2</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <v>7.9990543207688877E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" dyDescent="0.2">
-      <c r="A138">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
         <v>3.400065661636952</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>0.81955650994540052</v>
       </c>
-      <c r="C138">
+      <c r="C139">
         <v>3.6053829488395743E-2</v>
       </c>
-      <c r="D138">
+      <c r="D139">
         <v>3.6053829488395743E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" dyDescent="0.2">
-      <c r="A139">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
         <v>3.4150452647324738</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>0.38804121066620911</v>
       </c>
-      <c r="C139">
+      <c r="C140">
         <v>-1.5325755034010227E-2</v>
       </c>
-      <c r="D139">
+      <c r="D140">
         <v>-1.5325755034010227E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" dyDescent="0.2">
-      <c r="A140">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
         <v>3.4159494155341532</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>1.76127749148116</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>-5.9258596673528813E-2</v>
       </c>
-      <c r="D140">
+      <c r="D141">
         <v>-5.9258596673528813E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" dyDescent="0.2">
-      <c r="A141">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
         <v>3.42506129051521</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>2.075239182785813</v>
       </c>
-      <c r="C141">
+      <c r="C142">
         <v>6.6100581764921937E-2</v>
       </c>
-      <c r="D141">
+      <c r="D142">
         <v>6.6100581764921937E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" dyDescent="0.2">
-      <c r="A142">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
         <v>3.4482386624839241</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>2.4529179354621919</v>
       </c>
-      <c r="C142">
+      <c r="C143">
         <v>-2.0409480637403225E-2</v>
       </c>
-      <c r="D142">
+      <c r="D143">
         <v>-2.0409480637403225E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" dyDescent="0.2">
-      <c r="A143">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
         <v>3.5999999999983339</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <v>4</v>
       </c>
-      <c r="C143">
+      <c r="C144">
         <v>0.1325644104902482</v>
       </c>
-      <c r="D143">
+      <c r="D144">
         <v>-8.7382311386780431E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" dyDescent="0.2">
-      <c r="A144">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
         <v>3.5999999999989449</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <v>0</v>
       </c>
-      <c r="C144">
+      <c r="C145">
         <v>3.2638981083900681E-3</v>
       </c>
-      <c r="D144">
+      <c r="D145">
         <v>3.2638981083900681E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" dyDescent="0.2">
-      <c r="A145">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
         <v>3.6117793382595278</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>3.4151215936075161</v>
       </c>
-      <c r="C145">
+      <c r="C146">
         <v>7.4125664218168495E-3</v>
       </c>
-      <c r="D145">
+      <c r="D146">
         <v>7.4125664218168495E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" dyDescent="0.2">
-      <c r="A146">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
         <v>3.6131305987001698</v>
       </c>
-      <c r="B146">
+      <c r="B147">
         <v>1.46486890902801</v>
       </c>
-      <c r="C146">
+      <c r="C147">
         <v>-3.2423934162417192E-2</v>
       </c>
-      <c r="D146">
+      <c r="D147">
         <v>-3.2423934162417192E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" dyDescent="0.2">
-      <c r="A147">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>3.6199919733349502</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>3.7807923164616821</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <v>4.8978841275755238E-3</v>
       </c>
-      <c r="D147">
+      <c r="D148">
         <v>-3.4861372019905065E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" dyDescent="0.2">
-      <c r="A148">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
         <v>3.6615582512414191</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <v>3.0485741978789722</v>
       </c>
-      <c r="C148">
+      <c r="C149">
         <v>-1.233693093933395E-2</v>
       </c>
-      <c r="D148">
+      <c r="D149">
         <v>-1.233693093933395E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" dyDescent="0.2">
-      <c r="A149">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
         <v>3.6696000588755271</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>0.69176106009803429</v>
       </c>
-      <c r="C149">
+      <c r="C150">
         <v>-1.0325855037895352E-2</v>
       </c>
-      <c r="D149">
+      <c r="D150">
         <v>-1.0325855037895352E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" dyDescent="0.2">
-      <c r="A150">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
         <v>3.6946295134156282</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <v>1.8566361810653631</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <v>4.8320328648383981E-2</v>
       </c>
-      <c r="D150">
+      <c r="D151">
         <v>4.8320328648383981E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" dyDescent="0.2">
-      <c r="A151">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
         <v>3.695883117851551</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <v>2.6287070165651261</v>
       </c>
-      <c r="C151">
+      <c r="C152">
         <v>2.9983087683893912E-2</v>
       </c>
-      <c r="D151">
+      <c r="D152">
         <v>2.9983087683893912E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" dyDescent="0.2">
-      <c r="A152">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
         <v>3.7136357757442329</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>2.2384315031065332</v>
       </c>
-      <c r="C152">
+      <c r="C153">
         <v>-3.6916724846365205E-2</v>
       </c>
-      <c r="D152">
+      <c r="D153">
         <v>-3.6916724846365205E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" dyDescent="0.2">
-      <c r="A153">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
         <v>3.7255642789809591</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>1.0796044285195929</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <v>2.9631092376621912E-2</v>
       </c>
-      <c r="D153">
+      <c r="D154">
         <v>2.9631092376621912E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" dyDescent="0.2">
-      <c r="A154">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
         <v>3.7807742206011579</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>0.37996704512695462</v>
       </c>
-      <c r="C154">
+      <c r="C155">
         <v>2.7489438016299757E-3</v>
       </c>
-      <c r="D154">
+      <c r="D155">
         <v>2.7489438016299757E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" dyDescent="0.2">
-      <c r="A155">
-        <v>4</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>-1.0076059958257964E-2</v>
-      </c>
-      <c r="D155">
-        <v>-1.0076059958257964E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4</v>
       </c>
       <c r="B156">
-        <v>0.39999999999925662</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>7.5977332012076779E-3</v>
+        <v>-1.0076059958257964E-2</v>
       </c>
       <c r="D156">
-        <v>7.5977332012076779E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" dyDescent="0.2">
+        <v>-1.0076059958257964E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4</v>
       </c>
       <c r="B157">
-        <v>0.79999999999822768</v>
+        <v>0.39999999999925662</v>
       </c>
       <c r="C157">
-        <v>-6.721205496894536E-3</v>
+        <v>7.5977332012076779E-3</v>
       </c>
       <c r="D157">
-        <v>-6.721205496894536E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" dyDescent="0.2">
+        <v>7.5977332012076779E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4</v>
       </c>
       <c r="B158">
-        <v>1.1999999999970601</v>
+        <v>0.79999999999822768</v>
       </c>
       <c r="C158">
-        <v>-5.4325761311873636E-3</v>
+        <v>-6.721205496894536E-3</v>
       </c>
       <c r="D158">
-        <v>-5.4325761311873636E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" dyDescent="0.2">
+        <v>-6.721205496894536E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4</v>
       </c>
       <c r="B159">
-        <v>1.599999999995892</v>
+        <v>1.1999999999970601</v>
       </c>
       <c r="C159">
-        <v>1.7511643594835084E-2</v>
+        <v>-5.4325761311873636E-3</v>
       </c>
       <c r="D159">
-        <v>1.7511643594835084E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" dyDescent="0.2">
+        <v>-5.4325761311873636E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4</v>
       </c>
       <c r="B160">
-        <v>1.999999999994768</v>
+        <v>1.599999999995892</v>
       </c>
       <c r="C160">
-        <v>-1.2432203459662743E-2</v>
+        <v>1.7511643594835084E-2</v>
       </c>
       <c r="D160">
-        <v>-1.2432203459662743E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" dyDescent="0.2">
+        <v>1.7511643594835084E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4</v>
       </c>
       <c r="B161">
-        <v>2.3999999999957802</v>
+        <v>1.999999999994768</v>
       </c>
       <c r="C161">
-        <v>3.1854998523620767E-2</v>
+        <v>-1.2432203459662743E-2</v>
       </c>
       <c r="D161">
-        <v>3.1854998523620767E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" dyDescent="0.2">
+        <v>-1.2432203459662743E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4</v>
       </c>
       <c r="B162">
-        <v>2.7999999999968348</v>
+        <v>2.3999999999957802</v>
       </c>
       <c r="C162">
-        <v>-2.6506638651368705E-2</v>
+        <v>3.1854998523620767E-2</v>
       </c>
       <c r="D162">
-        <v>-2.6506638651368705E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" dyDescent="0.2">
+        <v>3.1854998523620767E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4</v>
       </c>
       <c r="B163">
-        <v>3.1999999999978899</v>
+        <v>2.7999999999968348</v>
       </c>
       <c r="C163">
-        <v>3.2307661920485771E-3</v>
+        <v>-2.6506638651368705E-2</v>
       </c>
       <c r="D163">
-        <v>3.2307661920485771E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" dyDescent="0.2">
+        <v>-2.6506638651368705E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4</v>
       </c>
       <c r="B164">
-        <v>3.5999999999989449</v>
+        <v>3.1999999999978899</v>
       </c>
       <c r="C164">
-        <v>1.8841322857070804E-2</v>
+        <v>3.2307661920485771E-3</v>
       </c>
       <c r="D164">
-        <v>1.8841322857070804E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" dyDescent="0.2">
+        <v>3.2307661920485771E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4</v>
       </c>
       <c r="B165">
+        <v>3.5999999999989449</v>
+      </c>
+      <c r="C165">
+        <v>1.8841322857070804E-2</v>
+      </c>
+      <c r="D165">
+        <v>1.8841322857070804E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
         <v>4</v>
       </c>
-      <c r="C165">
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
         <v>1.2570488707433798E-2</v>
       </c>
-      <c r="D165">
+      <c r="D166">
         <v>1.2570488707433798E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D165">
-    <sortCondition ref="A1:A165"/>
-    <sortCondition ref="B1:B165"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D166">
+    <sortCondition ref="A1:A166"/>
+    <sortCondition ref="B1:B166"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12975,9 +12989,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6950D-68AA-4EB5-9F19-D56239458097}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
